--- a/AWF_List.xlsx
+++ b/AWF_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizb\Documents\Feed Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azizb\PycharmProjects\FeedScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A4EF8-B5A0-47DA-8C3D-3A083E8C2F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0D551-B161-4B19-8396-BD26348813A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{40FA90A8-7DF4-44C7-A2FC-24CDBB32A2C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40FA90A8-7DF4-44C7-A2FC-24CDBB32A2C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>User_ID</t>
   </si>
@@ -175,6 +175,33 @@
   </si>
   <si>
     <t>ADUSUS2</t>
+  </si>
+  <si>
+    <t>ROLENAME</t>
+  </si>
+  <si>
+    <t>APS-eBSS</t>
+  </si>
+  <si>
+    <t>Support Services</t>
+  </si>
+  <si>
+    <t>EBX-CS</t>
+  </si>
+  <si>
+    <t>Development Services</t>
+  </si>
+  <si>
+    <t>AWF User</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>OnRequest User</t>
   </si>
 </sst>
 </file>
@@ -558,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E29C64-6528-4CBA-932F-ED34024F3260}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="C6:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,271 +600,297 @@
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="G7">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="H7">
         <v>6473</v>
       </c>
-      <c r="G2" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H2" s="2">
-        <v>38551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I7" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J7" s="2">
+        <v>38551</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="H8">
         <v>2641</v>
       </c>
-      <c r="G3" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H3" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="I8" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J8" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="G9">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="H9">
         <v>4591</v>
       </c>
-      <c r="G4" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="I9" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J9" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="H10">
         <v>2641</v>
       </c>
-      <c r="G5" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="I10" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J10" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="G11">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="H11">
         <v>4417</v>
       </c>
-      <c r="G6" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H6" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="I11" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J11" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="G12">
         <v>26</v>
       </c>
-      <c r="F7">
+      <c r="H12">
         <v>5649</v>
       </c>
-      <c r="G7" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H7" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="I12" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J12" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="E8">
+      <c r="G13">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="H13">
         <v>5769</v>
       </c>
-      <c r="G8" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H8" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="I13" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J13" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="G14">
         <v>26</v>
       </c>
-      <c r="F9">
+      <c r="H14">
         <v>5649</v>
       </c>
-      <c r="G9" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H9" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="I14" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J14" s="2">
+        <v>42390</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="E10">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="H15">
         <v>8581</v>
       </c>
-      <c r="G10" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="I15" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J15" s="2">
         <v>42390</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5BAD09D6-1927-4D3A-8292-2FBC4A381ACD}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{5BAD09D6-1927-4D3A-8292-2FBC4A381ACD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,10 +898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5581F49D-41AC-46BA-8BF0-46B6E14E67C4}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="C6:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,271 +912,302 @@
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="G7">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="H7">
         <v>6473</v>
       </c>
-      <c r="G2" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H2" s="2">
-        <v>38551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I7" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J7" s="2">
+        <v>38551</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="H8">
         <v>2641</v>
       </c>
-      <c r="G3" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H3" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="I8" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J8" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="G9">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="H9">
         <v>4591</v>
       </c>
-      <c r="G4" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="I9" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J9" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="H10">
         <v>2641</v>
       </c>
-      <c r="G5" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="I10" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J10" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="G11">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="H11">
         <v>4417</v>
       </c>
-      <c r="G6" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H6" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="I11" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J11" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="G12">
         <v>26</v>
       </c>
-      <c r="F7">
+      <c r="H12">
         <v>5649</v>
       </c>
-      <c r="G7" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H7" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="I12" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J12" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="E8">
+      <c r="G13">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="H13">
         <v>5769</v>
       </c>
-      <c r="G8" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H8" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="I13" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J13" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="G14">
         <v>26</v>
       </c>
-      <c r="F9">
+      <c r="H14">
         <v>5649</v>
       </c>
-      <c r="G9" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H9" s="2">
-        <v>42390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="I14" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J14" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="E10">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="H15">
         <v>8581</v>
       </c>
-      <c r="G10" s="2">
-        <v>38551</v>
-      </c>
-      <c r="H10" s="2">
-        <v>42390</v>
+      <c r="I15" s="2">
+        <v>38551</v>
+      </c>
+      <c r="J15" s="2">
+        <v>42390</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{73421AD4-EAF8-48D8-9C05-DF80A4CB54A5}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{73421AD4-EAF8-48D8-9C05-DF80A4CB54A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
